--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\eps-1.4.3-hk-wipB\eps-1.4.3-hk-wipB\InputData\elec\BTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_7B8CE0D8DBDE2BD1295A47EA1B4D03947E903BD0" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{756E467B-AD0B-40AF-92E3-5CC0497597A6}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1290" windowWidth="23670" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="90" windowWidth="17220" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BTC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>BTC BAU Transmission Capacity</t>
   </si>
@@ -62,76 +53,49 @@
     <t>to 2050 in the RE Futures Report.  We assume the growth is linear</t>
   </si>
   <si>
+    <t>2010 Transmission (high estimate):</t>
+  </si>
+  <si>
+    <t>2010 Transmission (low estimate):</t>
+  </si>
+  <si>
+    <t>2010 Transmission:</t>
+  </si>
+  <si>
+    <t>Pixels per 50 million MW*miles:</t>
+  </si>
+  <si>
+    <t>Pixel height of new transmission:</t>
+  </si>
+  <si>
+    <t>BAU New Transmission</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>BAU Transmission Capacity (MW*miles)</t>
+  </si>
+  <si>
+    <t>MW*miles</t>
+  </si>
+  <si>
+    <t>New transmission quantity in 2050</t>
+  </si>
+  <si>
+    <t>we must estimate by measuring pixels on the graph.</t>
+  </si>
+  <si>
+    <t>Unfortunately, data are only available as a graph (not in numbers), so</t>
+  </si>
+  <si>
     <t>and interpolate.</t>
-  </si>
-  <si>
-    <t>Unfortunately, data are only available as a graph (not in numbers), so</t>
-  </si>
-  <si>
-    <t>we must estimate by measuring pixels on the graph.</t>
-  </si>
-  <si>
-    <t>2010 Transmission (low estimate):</t>
-  </si>
-  <si>
-    <t>MW*miles</t>
-  </si>
-  <si>
-    <t>2010 Transmission (high estimate):</t>
-  </si>
-  <si>
-    <t>2010 Transmission:</t>
-  </si>
-  <si>
-    <t>BAU New Transmission</t>
-  </si>
-  <si>
-    <t>Pixels per 50 million MW*miles:</t>
-  </si>
-  <si>
-    <t>pixels</t>
-  </si>
-  <si>
-    <t>Pixel height of new transmission:</t>
-  </si>
-  <si>
-    <t>New transmission quantity in 2050</t>
-  </si>
-  <si>
-    <t>BAU Transmission Capacity (MW*miles)</t>
-  </si>
-  <si>
-    <t>US total capacity 2017:</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/electricity/annual/html/epa_04_03.html</t>
-  </si>
-  <si>
-    <t>HK total capacity:</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>(from start year capacity sheet)</t>
-  </si>
-  <si>
-    <t>scale factor:</t>
-  </si>
-  <si>
-    <t>this needs some work.</t>
-  </si>
-  <si>
-    <t>Due to lack of data sources we simply scale from US values by using the ratio of HK's total capacity to US total capacity.</t>
-  </si>
-  <si>
-    <t>HK Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -160,18 +124,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -196,14 +154,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -239,13 +189,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -353,23 +297,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -405,23 +332,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,21 +507,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -619,44 +527,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -664,168 +557,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
       </c>
       <c r="B10" s="4">
         <f>150*10^6</f>
         <v>150000000</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <f>200*10^6</f>
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE(B10:B11)</f>
         <v>175000000</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="B17" s="4">
         <f>B16/B15*50*10^6</f>
         <v>5319148.9361702129</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1186943.8999999999</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>11780</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <f>B25/B22</f>
-        <v>9.9246476602643154E-3</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -835,23 +685,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2010</v>
       </c>
@@ -976,173 +826,173 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8">
-        <f>Data!B12*Data!$B$28</f>
-        <v>1736813.3405462552</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="5">
+        <f>Data!B12</f>
+        <v>175000000</v>
       </c>
       <c r="C2" s="5">
         <f>B2+Data!$B$17/(2050-2010)</f>
-        <v>1869792.0639505105</v>
+        <v>175132978.72340426</v>
       </c>
       <c r="D2" s="5">
         <f>C2+Data!$B$17/(2050-2010)</f>
-        <v>2002770.7873547657</v>
+        <v>175265957.44680852</v>
       </c>
       <c r="E2" s="5">
         <f>D2+Data!$B$17/(2050-2010)</f>
-        <v>2135749.5107590212</v>
+        <v>175398936.17021278</v>
       </c>
       <c r="F2" s="5">
         <f>E2+Data!$B$17/(2050-2010)</f>
-        <v>2268728.2341632764</v>
+        <v>175531914.89361703</v>
       </c>
       <c r="G2" s="5">
         <f>F2+Data!$B$17/(2050-2010)</f>
-        <v>2401706.9575675316</v>
+        <v>175664893.61702129</v>
       </c>
       <c r="H2" s="5">
         <f>G2+Data!$B$17/(2050-2010)</f>
-        <v>2534685.6809717868</v>
+        <v>175797872.34042555</v>
       </c>
       <c r="I2" s="5">
         <f>H2+Data!$B$17/(2050-2010)</f>
-        <v>2667664.4043760421</v>
+        <v>175930851.06382981</v>
       </c>
       <c r="J2" s="5">
         <f>I2+Data!$B$17/(2050-2010)</f>
-        <v>2800643.1277802973</v>
+        <v>176063829.78723407</v>
       </c>
       <c r="K2" s="5">
         <f>J2+Data!$B$17/(2050-2010)</f>
-        <v>2933621.8511845525</v>
+        <v>176196808.51063833</v>
       </c>
       <c r="L2" s="5">
         <f>K2+Data!$B$17/(2050-2010)</f>
-        <v>3066600.5745888078</v>
+        <v>176329787.23404258</v>
       </c>
       <c r="M2" s="5">
         <f>L2+Data!$B$17/(2050-2010)</f>
-        <v>3199579.297993063</v>
+        <v>176462765.95744684</v>
       </c>
       <c r="N2" s="5">
         <f>M2+Data!$B$17/(2050-2010)</f>
-        <v>3332558.0213973182</v>
+        <v>176595744.6808511</v>
       </c>
       <c r="O2" s="5">
         <f>N2+Data!$B$17/(2050-2010)</f>
-        <v>3465536.7448015735</v>
+        <v>176728723.40425536</v>
       </c>
       <c r="P2" s="5">
         <f>O2+Data!$B$17/(2050-2010)</f>
-        <v>3598515.4682058287</v>
+        <v>176861702.12765962</v>
       </c>
       <c r="Q2" s="5">
         <f>P2+Data!$B$17/(2050-2010)</f>
-        <v>3731494.1916100839</v>
+        <v>176994680.85106388</v>
       </c>
       <c r="R2" s="5">
         <f>Q2+Data!$B$17/(2050-2010)</f>
-        <v>3864472.9150143391</v>
+        <v>177127659.57446814</v>
       </c>
       <c r="S2" s="5">
         <f>R2+Data!$B$17/(2050-2010)</f>
-        <v>3997451.6384185944</v>
+        <v>177260638.29787239</v>
       </c>
       <c r="T2" s="5">
         <f>S2+Data!$B$17/(2050-2010)</f>
-        <v>4130430.3618228496</v>
+        <v>177393617.02127665</v>
       </c>
       <c r="U2" s="5">
         <f>T2+Data!$B$17/(2050-2010)</f>
-        <v>4263409.0852271048</v>
+        <v>177526595.74468091</v>
       </c>
       <c r="V2" s="5">
         <f>U2+Data!$B$17/(2050-2010)</f>
-        <v>4396387.8086313605</v>
+        <v>177659574.46808517</v>
       </c>
       <c r="W2" s="5">
         <f>V2+Data!$B$17/(2050-2010)</f>
-        <v>4529366.5320356162</v>
+        <v>177792553.19148943</v>
       </c>
       <c r="X2" s="5">
         <f>W2+Data!$B$17/(2050-2010)</f>
-        <v>4662345.2554398719</v>
+        <v>177925531.91489369</v>
       </c>
       <c r="Y2" s="5">
         <f>X2+Data!$B$17/(2050-2010)</f>
-        <v>4795323.9788441276</v>
+        <v>178058510.63829795</v>
       </c>
       <c r="Z2" s="5">
         <f>Y2+Data!$B$17/(2050-2010)</f>
-        <v>4928302.7022483833</v>
+        <v>178191489.3617022</v>
       </c>
       <c r="AA2" s="5">
         <f>Z2+Data!$B$17/(2050-2010)</f>
-        <v>5061281.425652639</v>
+        <v>178324468.08510646</v>
       </c>
       <c r="AB2" s="5">
         <f>AA2+Data!$B$17/(2050-2010)</f>
-        <v>5194260.1490568947</v>
+        <v>178457446.80851072</v>
       </c>
       <c r="AC2" s="5">
         <f>AB2+Data!$B$17/(2050-2010)</f>
-        <v>5327238.8724611504</v>
+        <v>178590425.53191498</v>
       </c>
       <c r="AD2" s="5">
         <f>AC2+Data!$B$17/(2050-2010)</f>
-        <v>5460217.5958654061</v>
+        <v>178723404.25531924</v>
       </c>
       <c r="AE2" s="5">
         <f>AD2+Data!$B$17/(2050-2010)</f>
-        <v>5593196.3192696618</v>
+        <v>178856382.9787235</v>
       </c>
       <c r="AF2" s="5">
         <f>AE2+Data!$B$17/(2050-2010)</f>
-        <v>5726175.0426739175</v>
+        <v>178989361.70212775</v>
       </c>
       <c r="AG2" s="5">
         <f>AF2+Data!$B$17/(2050-2010)</f>
-        <v>5859153.7660781732</v>
+        <v>179122340.42553201</v>
       </c>
       <c r="AH2" s="5">
         <f>AG2+Data!$B$17/(2050-2010)</f>
-        <v>5992132.4894824289</v>
+        <v>179255319.14893627</v>
       </c>
       <c r="AI2" s="5">
         <f>AH2+Data!$B$17/(2050-2010)</f>
-        <v>6125111.2128866846</v>
+        <v>179388297.87234053</v>
       </c>
       <c r="AJ2" s="5">
         <f>AI2+Data!$B$17/(2050-2010)</f>
-        <v>6258089.9362909403</v>
+        <v>179521276.59574479</v>
       </c>
       <c r="AK2" s="5">
         <f>AJ2+Data!$B$17/(2050-2010)</f>
-        <v>6391068.659695196</v>
+        <v>179654255.31914905</v>
       </c>
       <c r="AL2" s="5">
         <f>AK2+Data!$B$17/(2050-2010)</f>
-        <v>6524047.3830994517</v>
+        <v>179787234.04255331</v>
       </c>
       <c r="AM2" s="5">
         <f>AL2+Data!$B$17/(2050-2010)</f>
-        <v>6657026.1065037074</v>
+        <v>179920212.76595756</v>
       </c>
       <c r="AN2" s="5">
         <f>AM2+Data!$B$17/(2050-2010)</f>
-        <v>6790004.8299079631</v>
+        <v>180053191.48936182</v>
       </c>
       <c r="AO2" s="5">
         <f>AN2+Data!$B$17/(2050-2010)</f>
-        <v>6922983.5533122187</v>
+        <v>180186170.21276608</v>
       </c>
       <c r="AP2" s="5">
         <f>AO2+Data!$B$17/(2050-2010)</f>
-        <v>7055962.2767164744</v>
+        <v>180319148.93617034</v>
       </c>
     </row>
   </sheetData>
@@ -1403,47 +1253,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E3826E-9100-42D4-B0EE-57D9C9E1B5D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7622E0C-BA07-4E09-81C8-57C2CB4EDF12}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F137B45-1D99-4BC0-BC5B-55B3F3E16E27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{372028B1-5632-4421-A2FC-C92E4D341D2E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A55F30A-DB3C-43E9-9232-F33914484AA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31326626-4CDD-4554-BD4B-C59845A7223F}"/>
 </file>
--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\eps-1.4.3-hk-wipB\eps-1.4.3-hk-wipB\InputData\elec\BTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_7B8CE0D8DBDE2BD1295A47EA1B4D03947E903BD0" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{756E467B-AD0B-40AF-92E3-5CC0497597A6}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="90" windowWidth="17220" windowHeight="8205"/>
+    <workbookView xWindow="3615" yWindow="1290" windowWidth="23670" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BTC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>BTC BAU Transmission Capacity</t>
   </si>
@@ -53,49 +62,76 @@
     <t>to 2050 in the RE Futures Report.  We assume the growth is linear</t>
   </si>
   <si>
+    <t>and interpolate.</t>
+  </si>
+  <si>
+    <t>Unfortunately, data are only available as a graph (not in numbers), so</t>
+  </si>
+  <si>
+    <t>we must estimate by measuring pixels on the graph.</t>
+  </si>
+  <si>
+    <t>2010 Transmission (low estimate):</t>
+  </si>
+  <si>
+    <t>MW*miles</t>
+  </si>
+  <si>
     <t>2010 Transmission (high estimate):</t>
   </si>
   <si>
-    <t>2010 Transmission (low estimate):</t>
-  </si>
-  <si>
     <t>2010 Transmission:</t>
   </si>
   <si>
+    <t>BAU New Transmission</t>
+  </si>
+  <si>
     <t>Pixels per 50 million MW*miles:</t>
   </si>
   <si>
+    <t>pixels</t>
+  </si>
+  <si>
     <t>Pixel height of new transmission:</t>
   </si>
   <si>
-    <t>BAU New Transmission</t>
-  </si>
-  <si>
-    <t>pixels</t>
+    <t>New transmission quantity in 2050</t>
   </si>
   <si>
     <t>BAU Transmission Capacity (MW*miles)</t>
   </si>
   <si>
-    <t>MW*miles</t>
-  </si>
-  <si>
-    <t>New transmission quantity in 2050</t>
-  </si>
-  <si>
-    <t>we must estimate by measuring pixels on the graph.</t>
-  </si>
-  <si>
-    <t>Unfortunately, data are only available as a graph (not in numbers), so</t>
-  </si>
-  <si>
-    <t>and interpolate.</t>
+    <t>US total capacity 2017:</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/electricity/annual/html/epa_04_03.html</t>
+  </si>
+  <si>
+    <t>HK total capacity:</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>(from start year capacity sheet)</t>
+  </si>
+  <si>
+    <t>scale factor:</t>
+  </si>
+  <si>
+    <t>this needs some work.</t>
+  </si>
+  <si>
+    <t>Due to lack of data sources we simply scale from US values by using the ratio of HK's total capacity to US total capacity.</t>
+  </si>
+  <si>
+    <t>HK Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -124,12 +160,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -154,6 +196,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -189,7 +239,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -297,6 +353,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -332,6 +405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,19 +597,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -527,29 +619,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -557,125 +664,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <f>150*10^6</f>
         <v>150000000</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <f>200*10^6</f>
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE(B10:B11)</f>
         <v>175000000</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
       </c>
       <c r="B15">
         <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9">
         <f>B16/B15*50*10^6</f>
         <v>5319148.9361702129</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1186943.8999999999</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>11780</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <f>B25/B22</f>
+        <v>9.9246476602643154E-3</v>
       </c>
     </row>
   </sheetData>
@@ -685,23 +835,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2010</v>
       </c>
@@ -826,173 +976,173 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5">
-        <f>Data!B12</f>
-        <v>175000000</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="8">
+        <f>Data!B12*Data!$B$28</f>
+        <v>1736813.3405462552</v>
       </c>
       <c r="C2" s="5">
         <f>B2+Data!$B$17/(2050-2010)</f>
-        <v>175132978.72340426</v>
+        <v>1869792.0639505105</v>
       </c>
       <c r="D2" s="5">
         <f>C2+Data!$B$17/(2050-2010)</f>
-        <v>175265957.44680852</v>
+        <v>2002770.7873547657</v>
       </c>
       <c r="E2" s="5">
         <f>D2+Data!$B$17/(2050-2010)</f>
-        <v>175398936.17021278</v>
+        <v>2135749.5107590212</v>
       </c>
       <c r="F2" s="5">
         <f>E2+Data!$B$17/(2050-2010)</f>
-        <v>175531914.89361703</v>
+        <v>2268728.2341632764</v>
       </c>
       <c r="G2" s="5">
         <f>F2+Data!$B$17/(2050-2010)</f>
-        <v>175664893.61702129</v>
+        <v>2401706.9575675316</v>
       </c>
       <c r="H2" s="5">
         <f>G2+Data!$B$17/(2050-2010)</f>
-        <v>175797872.34042555</v>
+        <v>2534685.6809717868</v>
       </c>
       <c r="I2" s="5">
         <f>H2+Data!$B$17/(2050-2010)</f>
-        <v>175930851.06382981</v>
+        <v>2667664.4043760421</v>
       </c>
       <c r="J2" s="5">
         <f>I2+Data!$B$17/(2050-2010)</f>
-        <v>176063829.78723407</v>
+        <v>2800643.1277802973</v>
       </c>
       <c r="K2" s="5">
         <f>J2+Data!$B$17/(2050-2010)</f>
-        <v>176196808.51063833</v>
+        <v>2933621.8511845525</v>
       </c>
       <c r="L2" s="5">
         <f>K2+Data!$B$17/(2050-2010)</f>
-        <v>176329787.23404258</v>
+        <v>3066600.5745888078</v>
       </c>
       <c r="M2" s="5">
         <f>L2+Data!$B$17/(2050-2010)</f>
-        <v>176462765.95744684</v>
+        <v>3199579.297993063</v>
       </c>
       <c r="N2" s="5">
         <f>M2+Data!$B$17/(2050-2010)</f>
-        <v>176595744.6808511</v>
+        <v>3332558.0213973182</v>
       </c>
       <c r="O2" s="5">
         <f>N2+Data!$B$17/(2050-2010)</f>
-        <v>176728723.40425536</v>
+        <v>3465536.7448015735</v>
       </c>
       <c r="P2" s="5">
         <f>O2+Data!$B$17/(2050-2010)</f>
-        <v>176861702.12765962</v>
+        <v>3598515.4682058287</v>
       </c>
       <c r="Q2" s="5">
         <f>P2+Data!$B$17/(2050-2010)</f>
-        <v>176994680.85106388</v>
+        <v>3731494.1916100839</v>
       </c>
       <c r="R2" s="5">
         <f>Q2+Data!$B$17/(2050-2010)</f>
-        <v>177127659.57446814</v>
+        <v>3864472.9150143391</v>
       </c>
       <c r="S2" s="5">
         <f>R2+Data!$B$17/(2050-2010)</f>
-        <v>177260638.29787239</v>
+        <v>3997451.6384185944</v>
       </c>
       <c r="T2" s="5">
         <f>S2+Data!$B$17/(2050-2010)</f>
-        <v>177393617.02127665</v>
+        <v>4130430.3618228496</v>
       </c>
       <c r="U2" s="5">
         <f>T2+Data!$B$17/(2050-2010)</f>
-        <v>177526595.74468091</v>
+        <v>4263409.0852271048</v>
       </c>
       <c r="V2" s="5">
         <f>U2+Data!$B$17/(2050-2010)</f>
-        <v>177659574.46808517</v>
+        <v>4396387.8086313605</v>
       </c>
       <c r="W2" s="5">
         <f>V2+Data!$B$17/(2050-2010)</f>
-        <v>177792553.19148943</v>
+        <v>4529366.5320356162</v>
       </c>
       <c r="X2" s="5">
         <f>W2+Data!$B$17/(2050-2010)</f>
-        <v>177925531.91489369</v>
+        <v>4662345.2554398719</v>
       </c>
       <c r="Y2" s="5">
         <f>X2+Data!$B$17/(2050-2010)</f>
-        <v>178058510.63829795</v>
+        <v>4795323.9788441276</v>
       </c>
       <c r="Z2" s="5">
         <f>Y2+Data!$B$17/(2050-2010)</f>
-        <v>178191489.3617022</v>
+        <v>4928302.7022483833</v>
       </c>
       <c r="AA2" s="5">
         <f>Z2+Data!$B$17/(2050-2010)</f>
-        <v>178324468.08510646</v>
+        <v>5061281.425652639</v>
       </c>
       <c r="AB2" s="5">
         <f>AA2+Data!$B$17/(2050-2010)</f>
-        <v>178457446.80851072</v>
+        <v>5194260.1490568947</v>
       </c>
       <c r="AC2" s="5">
         <f>AB2+Data!$B$17/(2050-2010)</f>
-        <v>178590425.53191498</v>
+        <v>5327238.8724611504</v>
       </c>
       <c r="AD2" s="5">
         <f>AC2+Data!$B$17/(2050-2010)</f>
-        <v>178723404.25531924</v>
+        <v>5460217.5958654061</v>
       </c>
       <c r="AE2" s="5">
         <f>AD2+Data!$B$17/(2050-2010)</f>
-        <v>178856382.9787235</v>
+        <v>5593196.3192696618</v>
       </c>
       <c r="AF2" s="5">
         <f>AE2+Data!$B$17/(2050-2010)</f>
-        <v>178989361.70212775</v>
+        <v>5726175.0426739175</v>
       </c>
       <c r="AG2" s="5">
         <f>AF2+Data!$B$17/(2050-2010)</f>
-        <v>179122340.42553201</v>
+        <v>5859153.7660781732</v>
       </c>
       <c r="AH2" s="5">
         <f>AG2+Data!$B$17/(2050-2010)</f>
-        <v>179255319.14893627</v>
+        <v>5992132.4894824289</v>
       </c>
       <c r="AI2" s="5">
         <f>AH2+Data!$B$17/(2050-2010)</f>
-        <v>179388297.87234053</v>
+        <v>6125111.2128866846</v>
       </c>
       <c r="AJ2" s="5">
         <f>AI2+Data!$B$17/(2050-2010)</f>
-        <v>179521276.59574479</v>
+        <v>6258089.9362909403</v>
       </c>
       <c r="AK2" s="5">
         <f>AJ2+Data!$B$17/(2050-2010)</f>
-        <v>179654255.31914905</v>
+        <v>6391068.659695196</v>
       </c>
       <c r="AL2" s="5">
         <f>AK2+Data!$B$17/(2050-2010)</f>
-        <v>179787234.04255331</v>
+        <v>6524047.3830994517</v>
       </c>
       <c r="AM2" s="5">
         <f>AL2+Data!$B$17/(2050-2010)</f>
-        <v>179920212.76595756</v>
+        <v>6657026.1065037074</v>
       </c>
       <c r="AN2" s="5">
         <f>AM2+Data!$B$17/(2050-2010)</f>
-        <v>180053191.48936182</v>
+        <v>6790004.8299079631</v>
       </c>
       <c r="AO2" s="5">
         <f>AN2+Data!$B$17/(2050-2010)</f>
-        <v>180186170.21276608</v>
+        <v>6922983.5533122187</v>
       </c>
       <c r="AP2" s="5">
         <f>AO2+Data!$B$17/(2050-2010)</f>
-        <v>180319148.93617034</v>
+        <v>7055962.2767164744</v>
       </c>
     </row>
   </sheetData>
@@ -1253,13 +1403,47 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7622E0C-BA07-4E09-81C8-57C2CB4EDF12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E3826E-9100-42D4-B0EE-57D9C9E1B5D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{372028B1-5632-4421-A2FC-C92E4D341D2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F137B45-1D99-4BC0-BC5B-55B3F3E16E27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31326626-4CDD-4554-BD4B-C59845A7223F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A55F30A-DB3C-43E9-9232-F33914484AA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>